--- a/HLS_man/COP20/COP20_man_tonga.xlsx
+++ b/HLS_man/COP20/COP20_man_tonga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA1CAF-F4D2-4DB4-8182-2AF9ECDEA255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C896BF81-8CB2-4D48-84F1-CA6EC5D4535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>COP20_tonga</t>
   </si>
@@ -197,30 +197,15 @@
     <t>moral responsiblity</t>
   </si>
   <si>
-    <t>emissions</t>
-  </si>
-  <si>
     <t>measures</t>
   </si>
   <si>
-    <t>mitigation, other(renewable energy) policy target</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t>sufficientarian</t>
   </si>
   <si>
-    <t xml:space="preserve">policy target in the nearby future. </t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t xml:space="preserve">the co-existence in a shared world where we should work together to improve this world. Linked to the utilitarian principle. </t>
-  </si>
-  <si>
     <t xml:space="preserve">n.a. </t>
   </si>
   <si>
@@ -228,6 +213,18 @@
   </si>
   <si>
     <t xml:space="preserve">Actions and amibitions should be increased and accellerated in order to prevent a tragedy of the commons, thus for the benefit of all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the co-existence in a shared world where we should work together to improve this world for the benefit of all </t>
+  </si>
+  <si>
+    <t>other(right to exist)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moral judgement on the right to exist. Setting a minimum threshold. </t>
+  </si>
+  <si>
+    <t>moral responsiblity, implementation</t>
   </si>
 </sst>
 </file>
@@ -601,15 +598,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -646,7 +643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -657,7 +654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -665,7 +662,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -673,7 +670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -681,7 +678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -689,7 +686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -697,7 +694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -705,7 +702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -713,7 +710,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -721,33 +718,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -755,7 +734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -763,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -771,7 +750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -782,30 +761,48 @@
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>36</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -816,22 +813,22 @@
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s">
         <v>36</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -839,7 +836,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -847,25 +844,25 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -873,7 +870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -881,12 +878,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="88.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="68.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="122.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="88.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="122.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>30</v>
       </c>

--- a/HLS_man/COP20/COP20_man_tonga.xlsx
+++ b/HLS_man/COP20/COP20_man_tonga.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C896BF81-8CB2-4D48-84F1-CA6EC5D4535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED51FD-27A8-4120-A87E-263EB7A3F90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>COP20_tonga</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -169,46 +163,18 @@
 1.</t>
   </si>
   <si>
-    <t xml:space="preserve">
- </t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>associate with Allicance of Small Island States, G77 and China</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>utilitarian</t>
   </si>
   <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>moral responsiblity</t>
-  </si>
-  <si>
-    <t>measures</t>
-  </si>
-  <si>
     <t>sufficientarian</t>
   </si>
   <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t xml:space="preserve">n.a. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The strategies currently taken should be revised to be more sustainable to ensure a cleaner future for all, thus the benefit of all, thus utilitarian. </t>
   </si>
   <si>
@@ -218,13 +184,28 @@
     <t xml:space="preserve">the co-existence in a shared world where we should work together to improve this world for the benefit of all </t>
   </si>
   <si>
-    <t>other(right to exist)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moral judgement on the right to exist. Setting a minimum threshold. </t>
-  </si>
-  <si>
-    <t>moral responsiblity, implementation</t>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moral judgement on the need to take action motivated by the right to exist. Setting a minimum threshold. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>responsibilty</t>
+  </si>
+  <si>
+    <t>human rights</t>
   </si>
 </sst>
 </file>
@@ -594,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +587,7 @@
     <col min="1" max="1" width="44.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,272 +601,247 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="88.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="122.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>30</v>
+      <c r="B22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
